--- a/MLP/Dados_Normalizados.xlsx
+++ b/MLP/Dados_Normalizados.xlsx
@@ -375,7 +375,7 @@
   <cols>
     <col min="1" max="1" width="2.16796875" customWidth="true"/>
     <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="2.16796875" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="2.16796875" customWidth="true"/>
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F11" s="0">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F14" s="0">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F26" s="0">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D29" s="0">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F33" s="0">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D34" s="0">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F37" s="0">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F42" s="0">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D44" s="0">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F47" s="0">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F50" s="0">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F52" s="0">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F54" s="0">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F55" s="0">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F58" s="0">
         <v>1</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
@@ -1649,13 +1649,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D65" s="0">
         <v>0</v>
       </c>
       <c r="E65" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F65" s="0">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D67" s="0">
         <v>1</v>
       </c>
       <c r="E67" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F67" s="0">
         <v>0</v>
@@ -1729,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="C68" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F68" s="0">
         <v>0</v>
@@ -1749,13 +1749,13 @@
         <v>0</v>
       </c>
       <c r="C69" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D69" s="0">
         <v>0</v>
       </c>
       <c r="E69" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F69" s="0">
         <v>0</v>
@@ -1769,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="C70" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D70" s="0">
         <v>0</v>
       </c>
       <c r="E70" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F70" s="0">
         <v>0</v>
@@ -1789,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="C71" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D71" s="0">
         <v>0</v>
       </c>
       <c r="E71" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F71" s="0">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="C72" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D72" s="0">
         <v>0</v>
       </c>
       <c r="E72" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F72" s="0">
         <v>0</v>
@@ -1829,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="C73" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D73" s="0">
         <v>0</v>
       </c>
       <c r="E73" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F73" s="0">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="C74" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D74" s="0">
         <v>0</v>
       </c>
       <c r="E74" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F74" s="0">
         <v>0</v>
@@ -1869,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="C75" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D75" s="0">
         <v>0</v>
       </c>
       <c r="E75" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F75" s="0">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="C76" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D76" s="0">
         <v>0</v>
       </c>
       <c r="E76" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F76" s="0">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F77" s="0">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="C78" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D78" s="0">
         <v>0</v>
       </c>
       <c r="E78" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F78" s="0">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F79" s="0">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F80" s="0">
         <v>0</v>
@@ -1989,13 +1989,13 @@
         <v>0</v>
       </c>
       <c r="C81" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D81" s="0">
         <v>0</v>
       </c>
       <c r="E81" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F81" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F82" s="0">
         <v>0</v>
@@ -2029,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="C83" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D83" s="0">
         <v>0</v>
       </c>
       <c r="E83" s="0">
-        <v>0.24242424242424243</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F83" s="0">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F84" s="0">
         <v>0</v>
@@ -2069,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="C85" s="0">
-        <v>0</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D85" s="0">
         <v>0</v>
       </c>
       <c r="E85" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F85" s="0">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F86" s="0">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F87" s="0">
         <v>1</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F88" s="0">
         <v>1</v>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F89" s="0">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F91" s="0">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F92" s="0">
         <v>1</v>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F93" s="0">
         <v>1</v>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F94" s="0">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F96" s="0">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F97" s="0">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F99" s="0">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F100" s="0">
         <v>1</v>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F101" s="0">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F102" s="0">
         <v>1</v>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F103" s="0">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F104" s="0">
         <v>1</v>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F105" s="0">
         <v>1</v>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F106" s="0">
         <v>1</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F107" s="0">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="0">
-        <v>0.25</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F108" s="0">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F109" s="0">
         <v>1</v>
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="0">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F110" s="0">
         <v>1</v>
@@ -2589,13 +2589,13 @@
         <v>1</v>
       </c>
       <c r="C111" s="0">
-        <v>0.21428571428571427</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D111" s="0">
         <v>1</v>
       </c>
       <c r="E111" s="0">
-        <v>0.25</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F111" s="0">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="C112" s="0">
-        <v>0.21428571428571427</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D112" s="0">
         <v>0</v>
       </c>
       <c r="E112" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F112" s="0">
         <v>0</v>
@@ -2629,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="C113" s="0">
-        <v>0.21428571428571427</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D113" s="0">
         <v>0</v>
       </c>
       <c r="E113" s="0">
-        <v>0.25</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F113" s="0">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="C114" s="0">
-        <v>0.21428571428571427</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D114" s="0">
         <v>0</v>
       </c>
       <c r="E114" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F114" s="0">
         <v>0</v>
@@ -2669,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="C115" s="0">
-        <v>0.21428571428571427</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D115" s="0">
         <v>0</v>
       </c>
       <c r="E115" s="0">
-        <v>0.25</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F115" s="0">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="C116" s="0">
-        <v>0.21428571428571427</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D116" s="0">
         <v>0</v>
       </c>
       <c r="E116" s="0">
-        <v>0.25</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F116" s="0">
         <v>0</v>
@@ -2709,13 +2709,13 @@
         <v>0</v>
       </c>
       <c r="C117" s="0">
-        <v>0.21428571428571427</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D117" s="0">
         <v>0</v>
       </c>
       <c r="E117" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F117" s="0">
         <v>0</v>
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="C118" s="0">
-        <v>0.21428571428571427</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D118" s="0">
         <v>0</v>
       </c>
       <c r="E118" s="0">
-        <v>0.25</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="F118" s="0">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F119" s="0">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="C120" s="0">
-        <v>0.21428571428571427</v>
+        <v>0.090909090909090912</v>
       </c>
       <c r="D120" s="0">
         <v>0</v>
       </c>
       <c r="E120" s="0">
-        <v>1</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F120" s="0">
         <v>0</v>
